--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt5a-Lrp5.xlsx
@@ -540,10 +540,10 @@
         <v>27.470878</v>
       </c>
       <c r="I2">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J2">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N2">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O2">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P2">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q2">
-        <v>121.488117406174</v>
+        <v>139.5970880613618</v>
       </c>
       <c r="R2">
-        <v>1093.393056655566</v>
+        <v>1256.373792552256</v>
       </c>
       <c r="S2">
-        <v>0.4118438254383586</v>
+        <v>0.4683284083563146</v>
       </c>
       <c r="T2">
-        <v>0.4118438254383586</v>
+        <v>0.4683284083563146</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,10 +602,10 @@
         <v>27.470878</v>
       </c>
       <c r="I3">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J3">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>31.022496</v>
       </c>
       <c r="O3">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P3">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q3">
-        <v>94.690578096832</v>
+        <v>94.69057809683203</v>
       </c>
       <c r="R3">
         <v>852.215202871488</v>
       </c>
       <c r="S3">
-        <v>0.3210003640601898</v>
+        <v>0.3176734439255326</v>
       </c>
       <c r="T3">
-        <v>0.3210003640601898</v>
+        <v>0.3176734439255326</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,10 +664,10 @@
         <v>27.470878</v>
       </c>
       <c r="I4">
-        <v>0.969469463764299</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="J4">
-        <v>0.9694694637642989</v>
+        <v>0.9693716918425304</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N4">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P4">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q4">
-        <v>69.80111713625357</v>
+        <v>54.65800319649845</v>
       </c>
       <c r="R4">
-        <v>628.2100542262821</v>
+        <v>491.922028768486</v>
       </c>
       <c r="S4">
-        <v>0.2366252742657506</v>
+        <v>0.1833698395606832</v>
       </c>
       <c r="T4">
-        <v>0.2366252742657506</v>
+        <v>0.1833698395606832</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H5">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J5">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>13.267299</v>
+        <v>15.24491733333333</v>
       </c>
       <c r="N5">
-        <v>39.801897</v>
+        <v>45.73475199999999</v>
       </c>
       <c r="O5">
-        <v>0.4248136128385448</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="P5">
-        <v>0.4248136128385449</v>
+        <v>0.4831257321597052</v>
       </c>
       <c r="Q5">
-        <v>3.825904279929</v>
+        <v>4.410715380910222</v>
       </c>
       <c r="R5">
-        <v>34.43313851936099</v>
+        <v>39.696438428192</v>
       </c>
       <c r="S5">
-        <v>0.01296978740018629</v>
+        <v>0.01479732380339059</v>
       </c>
       <c r="T5">
-        <v>0.01296978740018629</v>
+        <v>0.01479732380339058</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H6">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J6">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,22 +806,22 @@
         <v>31.022496</v>
       </c>
       <c r="O6">
-        <v>0.3311093088108163</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="P6">
-        <v>0.3311093088108164</v>
+        <v>0.327710667227878</v>
       </c>
       <c r="Q6">
-        <v>2.981996064671999</v>
+        <v>2.991847430624</v>
       </c>
       <c r="R6">
-        <v>26.837964582048</v>
+        <v>26.926626875616</v>
       </c>
       <c r="S6">
-        <v>0.01010894475062657</v>
+        <v>0.01003722330234543</v>
       </c>
       <c r="T6">
-        <v>0.01010894475062657</v>
+        <v>0.01003722330234543</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.288371</v>
+        <v>0.2893236666666667</v>
       </c>
       <c r="H7">
-        <v>0.865113</v>
+        <v>0.867971</v>
       </c>
       <c r="I7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746963</v>
       </c>
       <c r="J7">
-        <v>0.03053053623570109</v>
+        <v>0.03062830815746962</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.622739666666667</v>
+        <v>5.969012333333333</v>
       </c>
       <c r="N7">
-        <v>22.868219</v>
+        <v>17.907037</v>
       </c>
       <c r="O7">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="P7">
-        <v>0.2440770783506388</v>
+        <v>0.1891636006124168</v>
       </c>
       <c r="Q7">
-        <v>2.198177060416333</v>
+        <v>1.726976534658555</v>
       </c>
       <c r="R7">
-        <v>19.783593543747</v>
+        <v>15.542788811927</v>
       </c>
       <c r="S7">
-        <v>0.007451804084888231</v>
+        <v>0.005793761051733612</v>
       </c>
       <c r="T7">
-        <v>0.007451804084888232</v>
+        <v>0.005793761051733612</v>
       </c>
     </row>
   </sheetData>
